--- a/Concreto Armado/Calculo de Viga.xlsx
+++ b/Concreto Armado/Calculo de Viga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Primer-Semestre-24\Concreto Armado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD04CB-4C6B-4D8A-81E6-2D211FC25705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F8A5D2-C2FB-4AE0-BC3C-668C2114840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8D2F44F-0029-4B42-B618-8B069D1D7BB8}"/>
   </bookViews>
@@ -4481,7 +4481,7 @@
   <dimension ref="D2:P102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Concreto Armado/Calculo de Viga.xlsx
+++ b/Concreto Armado/Calculo de Viga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Primer-Semestre-24\Concreto Armado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F8A5D2-C2FB-4AE0-BC3C-668C2114840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F8CAC4-2EA3-4466-A178-0FA59388948C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8D2F44F-0029-4B42-B618-8B069D1D7BB8}"/>
   </bookViews>
@@ -4480,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D654D5B1-61BF-4940-B096-5C875678F8EB}">
   <dimension ref="D2:P102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4712,7 +4712,8 @@
         <v>25</v>
       </c>
       <c r="I49" s="3">
-        <v>5.53</v>
+        <f>(0.85*$G$28*$E$24/$G$29)*($E$25-(SQRT(POWER($E$25,2)-$E$20/(0.425*$E$30*G$28*$E$24))))</f>
+        <v>5.5484553740672258</v>
       </c>
       <c r="J49" t="s">
         <v>15</v>
@@ -4733,7 +4734,8 @@
         <v>25</v>
       </c>
       <c r="I51" s="3">
-        <v>8.26</v>
+        <f>(0.85*$G$28*$E$24/$G$29)*($E$25-(SQRT(POWER($E$25,2)-E21/(0.425*$E$30*G$28*$E$24))))</f>
+        <v>8.2634156119246587</v>
       </c>
       <c r="J51" t="s">
         <v>15</v>
@@ -4754,7 +4756,8 @@
         <v>25</v>
       </c>
       <c r="I53" s="3">
-        <v>11.5</v>
+        <f>(0.85*$G$28*$E$24/$G$29)*($E$25-(SQRT(POWER($E$25,2)-E22/(0.425*$E$30*G$28*$E$24))))</f>
+        <v>11.498530632197323</v>
       </c>
       <c r="J53" t="s">
         <v>15</v>
@@ -4788,7 +4791,7 @@
       </c>
       <c r="F61">
         <f>I49</f>
-        <v>5.53</v>
+        <v>5.5484553740672258</v>
       </c>
       <c r="H61">
         <f>E43</f>
@@ -4798,13 +4801,13 @@
     <row r="62" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F62">
         <f>I51</f>
-        <v>8.26</v>
+        <v>8.2634156119246587</v>
       </c>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.3">
       <c r="F63">
         <f>I53</f>
-        <v>11.5</v>
+        <v>11.498530632197323</v>
       </c>
     </row>
     <row r="68" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -4848,7 +4851,7 @@
       </c>
       <c r="G75" s="3">
         <f>F62/3</f>
-        <v>2.7533333333333334</v>
+        <v>2.7544718706415527</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>15</v>
@@ -4889,7 +4892,7 @@
       </c>
       <c r="G82" s="3">
         <f>F62/2</f>
-        <v>4.13</v>
+        <v>4.1317078059623293</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>15</v>
@@ -4905,7 +4908,7 @@
       </c>
       <c r="G84" s="3">
         <f>F63/2</f>
-        <v>5.75</v>
+        <v>5.7492653160986613</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>15</v>
